--- a/biology/Zoologie/Hypolimnas/Hypolimnas.xlsx
+++ b/biology/Zoologie/Hypolimnas/Hypolimnas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypolimnas est un genre de lépidoptères de la famille des Nymphalidae.
 Ses espèces sont principalement répandues en Afrique, en Asie et en Océanie, et l'une d'entre elles (Hypolimnas misippus) est aussi présente en Amérique.
@@ -512,14 +524,16 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Hypolimnas a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1].
-Son espèce type est Papilio pipleis Linnaeus, 1758, qui est un synonyme d’Hypolimnas pandarus (Linnaeus, 1758)[2].
-Hypolimnas a les synonymes suivants[2] :
-Esoptria Hübner, [1819]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Hypolimnas a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+Son espèce type est Papilio pipleis Linnaeus, 1758, qui est un synonyme d’Hypolimnas pandarus (Linnaeus, 1758).
+Hypolimnas a les synonymes suivants :
+Esoptria Hübner, 
 Diadema Boisduval, 1832
-Euralia Westwood, [1850]
+Euralia Westwood, 
 Eucalia Felder, 1861</t>
         </is>
       </c>
@@ -548,14 +562,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Funet[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Funet:
 Hypolimnas alimena (Linnaeus, 1758) — en Australie, aux Moluques, en Nouvelle-Guinée et dans les îles environnantes.
 Hypolimnas anomala (Wallace, 1869) — en Indonésie, à Timor et aux Philippines.
-Hypolimnas antevorta (Distant, [1880]) — dans le Nord-Est de la Tanzanie.
+Hypolimnas antevorta (Distant, ) — dans le Nord-Est de la Tanzanie.
 Hypolimnas anthedon (Doubleday, 1845) — en Afrique tropicale, à Madagascar et dans les îles environnantes.
-Hypolimnas antilope (Cramer, [1777]) — de l'Asie du Sud-Est à l'Australasie.
+Hypolimnas antilope (Cramer, ) — de l'Asie du Sud-Est à l'Australasie.
 Hypolimnas arakalulk Semper, 1906 — aux îles Carolines et aux îles Mariannes.
 Hypolimnas aubergeri Hecq, 1987
 Hypolimnas aurifascia Mengel, 1903 — aux Nouvelles-Hébrides.
